--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_TE_BalanceTypeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_TE_BalanceTypeProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154375E-4241-4A16-92D7-4D4B7E9101BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A88A13-2EB7-4A96-B3E8-0AF70544B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,10 @@
     <t>Automate</t>
   </si>
   <si>
-    <t>2 - Record with Cumulative balances</t>
-  </si>
-  <si>
     <t>Offset3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 - Record with Cumulative balances </t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,10 +992,10 @@
         <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H2" s="5"/>
     </row>
